--- a/Results/result_deepNet.xlsx
+++ b/Results/result_deepNet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="211" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -13,75 +13,107 @@
     <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>model_name</t>
-  </si>
-  <si>
-    <t>learning_rate</t>
-  </si>
-  <si>
-    <t>data ratio</t>
-  </si>
-  <si>
-    <t>Epochs</t>
-  </si>
-  <si>
-    <t>oversampling</t>
-  </si>
-  <si>
-    <t>Regularization</t>
-  </si>
-  <si>
-    <t>Dropout</t>
-  </si>
-  <si>
-    <t>optimiser</t>
-  </si>
-  <si>
-    <t>TPR</t>
-  </si>
-  <si>
-    <t>FPR</t>
-  </si>
-  <si>
-    <t>Train_Accuracy</t>
-  </si>
-  <si>
-    <t>Test_accuracy</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="18">
+  <si>
+    <t xml:space="preserve">model_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">learning_rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data ratio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Epochs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oversampling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regularization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dropout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">optimiser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TPR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FPR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Train_Accuracy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test_accuracy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deep_net1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt formatCode="GENERAL" numFmtId="164"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="HH:MM:SS"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="10"/>
+      <charset val="1"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -93,7 +125,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalDown="false" diagonalUp="false">
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
@@ -102,40 +134,55 @@
     </border>
   </borders>
   <cellStyleXfs count="20">
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="43"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="41"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="44"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+  <cellXfs count="4">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
-    <cellStyle builtinId="3" customBuiltin="false" name="Comma" xfId="15"/>
-    <cellStyle builtinId="6" customBuiltin="false" name="Comma [0]" xfId="16"/>
-    <cellStyle builtinId="4" customBuiltin="false" name="Currency" xfId="17"/>
-    <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
-    <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -145,22 +192,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="F1" activeCellId="0" pane="topLeft" sqref="F1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="15:15"/>
     </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="5" min="1" style="0" width="11.5764705882353"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.0235294117647"/>
-    <col collapsed="false" hidden="false" max="10" min="7" style="0" width="11.5764705882353"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="14.2823529411765"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="13.5843137254902"/>
-    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="11.5764705882353"/>
+    <col collapsed="false" hidden="false" max="5" min="1" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="10" min="7" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="13.3622448979592"/>
+    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="1">
+    <row r="1" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -196,12 +244,532 @@
       </c>
       <c r="L1" s="0" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>0.0423611111111111</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>83.84</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <v>29.23</v>
+      </c>
+      <c r="K2" s="0" t="n">
+        <v>82.12</v>
+      </c>
+      <c r="L2" s="0" t="n">
+        <v>77.3</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>0.0423611111111111</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>64.615</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>13.46</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <v>83.75</v>
+      </c>
+      <c r="L3" s="0" t="n">
+        <v>75.57</v>
+      </c>
+    </row>
+    <row r="4" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="C4" s="3" t="n">
+        <v>0.0423611111111111</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>400</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="2" t="n">
+        <v>83.61</v>
+      </c>
+      <c r="J4" s="2" t="n">
+        <v>25.38</v>
+      </c>
+      <c r="K4" s="2" t="n">
+        <v>93.72</v>
+      </c>
+      <c r="L4" s="2" t="n">
+        <v>79.03</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>0.0423611111111111</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>73.61</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>16.53</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <v>94.58</v>
+      </c>
+      <c r="L5" s="0" t="n">
+        <v>78.46</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>0.0423611111111111</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>800</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>85</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>38.07</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <v>93.72</v>
+      </c>
+      <c r="L6" s="0" t="n">
+        <v>73.46</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>0.0423611111111111</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>82.69</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>23.84</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <v>99.04</v>
+      </c>
+      <c r="L7" s="0" t="n">
+        <v>79.42</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>0.0423611111111111</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>1100</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>77.69</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <v>98.86</v>
+      </c>
+      <c r="L8" s="0" t="n">
+        <v>78.84</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>0.0423611111111111</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>0.0430555555555556</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>69.11</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>10.84</v>
+      </c>
+      <c r="K11" s="0" t="n">
+        <v>96.13</v>
+      </c>
+      <c r="L11" s="0" t="n">
+        <v>81.98</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>0.0430555555555556</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>71.69</v>
+      </c>
+      <c r="J12" s="0" t="n">
+        <v>12.68</v>
+      </c>
+      <c r="K12" s="0" t="n">
+        <v>95.83</v>
+      </c>
+      <c r="L12" s="0" t="n">
+        <v>82.1</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>0.0430555555555556</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>75</v>
+      </c>
+      <c r="J13" s="0" t="n">
+        <v>16.36</v>
+      </c>
+      <c r="K13" s="0" t="n">
+        <v>96.99</v>
+      </c>
+      <c r="L13" s="0" t="n">
+        <v>80.75</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>0.0430555555555556</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>800</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>73.89</v>
+      </c>
+      <c r="J14" s="0" t="n">
+        <v>13.05</v>
+      </c>
+      <c r="K14" s="0" t="n">
+        <v>98.98</v>
+      </c>
+      <c r="L14" s="0" t="n">
+        <v>82.59</v>
+      </c>
+    </row>
+    <row r="15" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="2" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="C15" s="3" t="n">
+        <v>0.0430555555555556</v>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="2" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="J15" s="2" t="n">
+        <v>18.01</v>
+      </c>
+      <c r="K15" s="2" t="n">
+        <v>98.25</v>
+      </c>
+      <c r="L15" s="2" t="n">
+        <v>80.39</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>0.0430555555555556</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>1100</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <v>74.63</v>
+      </c>
+      <c r="J16" s="0" t="n">
+        <v>12.86</v>
+      </c>
+      <c r="K16" s="0" t="n">
+        <v>99.75</v>
+      </c>
+      <c r="L16" s="0" t="n">
+        <v>82.96</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="true" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -216,17 +784,18 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="15:15 A1"/>
     </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5764705882353"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -241,17 +810,18 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="15:15 A1"/>
     </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5764705882353"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
